--- a/premise/data/additional_inventories/lci-synfuels-from-FT-from-coal-gasification.xlsx
+++ b/premise/data/additional_inventories/lci-synfuels-from-FT-from-coal-gasification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A9EC93-A18A-CA42-B433-4E87E209BA28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16455733-DD70-3E41-A1A1-E711C3748294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34420" yWindow="1140" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34200" yWindow="3520" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FT fuel - Diesel" sheetId="1" r:id="rId1"/>
@@ -749,7 +749,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K567"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -771,10 +770,10 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -782,7 +781,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -790,7 +789,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>1</v>
       </c>
@@ -798,7 +797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
@@ -806,7 +805,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
@@ -814,7 +813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>5</v>
       </c>
@@ -822,12 +821,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
@@ -862,7 +861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>91</v>
       </c>
@@ -888,7 +887,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>81</v>
       </c>
@@ -908,7 +907,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>27</v>
       </c>
@@ -928,7 +927,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>59</v>
       </c>
@@ -948,7 +947,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>61</v>
       </c>
@@ -968,7 +967,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>63</v>
       </c>
@@ -988,7 +987,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>65</v>
       </c>
@@ -1008,7 +1007,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>67</v>
       </c>
@@ -1028,7 +1027,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>69</v>
       </c>
@@ -1048,7 +1047,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>71</v>
       </c>
@@ -1068,7 +1067,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>74</v>
       </c>
@@ -1088,7 +1087,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>78</v>
       </c>
@@ -1108,12 +1107,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="13"/>
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>0</v>
       </c>
@@ -1121,7 +1120,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>7</v>
       </c>
@@ -1129,7 +1128,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>1</v>
       </c>
@@ -1137,7 +1136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>2</v>
       </c>
@@ -1145,7 +1144,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>3</v>
       </c>
@@ -1153,7 +1152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>5</v>
       </c>
@@ -1161,12 +1160,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>11</v>
       </c>
@@ -1201,7 +1200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>92</v>
       </c>
@@ -1227,7 +1226,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>82</v>
       </c>
@@ -1247,7 +1246,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>27</v>
       </c>
@@ -1267,7 +1266,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>59</v>
       </c>
@@ -1287,7 +1286,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>61</v>
       </c>
@@ -1307,7 +1306,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>63</v>
       </c>
@@ -1327,7 +1326,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>65</v>
       </c>
@@ -1347,7 +1346,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>67</v>
       </c>
@@ -1367,7 +1366,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>69</v>
       </c>
@@ -1387,7 +1386,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>71</v>
       </c>
@@ -1407,7 +1406,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>74</v>
       </c>
@@ -1427,7 +1426,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>78</v>
       </c>
@@ -1447,12 +1446,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
       <c r="B44" s="13"/>
       <c r="G44" s="10"/>
     </row>
-    <row r="45" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>0</v>
       </c>
@@ -1460,7 +1459,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>7</v>
       </c>
@@ -1468,7 +1467,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>1</v>
       </c>
@@ -1476,7 +1475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>2</v>
       </c>
@@ -1484,7 +1483,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
         <v>3</v>
       </c>
@@ -1492,7 +1491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
         <v>5</v>
       </c>
@@ -1500,12 +1499,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
         <v>11</v>
       </c>
@@ -1540,7 +1539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
         <v>93</v>
       </c>
@@ -1566,7 +1565,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>83</v>
       </c>
@@ -1586,7 +1585,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
         <v>27</v>
       </c>
@@ -1606,7 +1605,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8" t="s">
         <v>59</v>
       </c>
@@ -1626,7 +1625,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>61</v>
       </c>
@@ -1646,7 +1645,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8" t="s">
         <v>63</v>
       </c>
@@ -1666,7 +1665,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="8" t="s">
         <v>65</v>
       </c>
@@ -1686,7 +1685,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
         <v>67</v>
       </c>
@@ -1706,7 +1705,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="8" t="s">
         <v>69</v>
       </c>
@@ -1726,7 +1725,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>71</v>
       </c>
@@ -1746,7 +1745,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
         <v>74</v>
       </c>
@@ -1766,7 +1765,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8" t="s">
         <v>78</v>
       </c>
@@ -1786,12 +1785,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="10"/>
       <c r="B65" s="13"/>
       <c r="G65" s="10"/>
     </row>
-    <row r="66" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>0</v>
       </c>
@@ -1799,7 +1798,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>7</v>
       </c>
@@ -1807,7 +1806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
         <v>1</v>
       </c>
@@ -1815,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="8" t="s">
         <v>2</v>
       </c>
@@ -1823,7 +1822,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="8" t="s">
         <v>3</v>
       </c>
@@ -1831,7 +1830,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
         <v>5</v>
       </c>
@@ -1839,12 +1838,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="8" t="s">
         <v>11</v>
       </c>
@@ -1879,7 +1878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="8" t="s">
         <v>94</v>
       </c>
@@ -1905,7 +1904,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
         <v>84</v>
       </c>
@@ -1925,7 +1924,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="76" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="8" t="s">
         <v>27</v>
       </c>
@@ -1945,7 +1944,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
         <v>59</v>
       </c>
@@ -1965,7 +1964,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
         <v>61</v>
       </c>
@@ -1985,7 +1984,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>63</v>
       </c>
@@ -2005,7 +2004,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="80" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
         <v>65</v>
       </c>
@@ -2025,7 +2024,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="81" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
         <v>67</v>
       </c>
@@ -2045,7 +2044,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="82" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
         <v>69</v>
       </c>
@@ -2065,7 +2064,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
         <v>71</v>
       </c>
@@ -2085,7 +2084,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
         <v>74</v>
       </c>
@@ -2105,7 +2104,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
         <v>78</v>
       </c>
@@ -2125,12 +2124,12 @@
         <v>76</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="10"/>
       <c r="B86" s="13"/>
       <c r="G86" s="10"/>
     </row>
-    <row r="87" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>0</v>
       </c>
@@ -2138,7 +2137,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
         <v>1</v>
       </c>
@@ -2146,7 +2145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="8" t="s">
         <v>2</v>
       </c>
@@ -2154,7 +2153,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="8" t="s">
         <v>3</v>
       </c>
@@ -2162,7 +2161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="8" t="s">
         <v>5</v>
       </c>
@@ -2170,7 +2169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="8" t="s">
         <v>7</v>
       </c>
@@ -2178,7 +2177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="8" t="s">
         <v>9</v>
       </c>
@@ -2186,7 +2185,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="8" t="s">
         <v>37</v>
       </c>
@@ -2194,12 +2193,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="95" spans="1:11" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="8" t="s">
         <v>11</v>
       </c>
@@ -2228,7 +2227,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="8" t="s">
         <v>81</v>
       </c>
@@ -2254,7 +2253,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="8" t="s">
         <v>90</v>
       </c>
@@ -2277,7 +2276,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A99" s="8" t="s">
         <v>19</v>
       </c>
@@ -2297,7 +2296,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="8" t="s">
         <v>24</v>
       </c>
@@ -2317,7 +2316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="8" t="s">
         <v>40</v>
       </c>
@@ -2340,7 +2339,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="8" t="s">
         <v>27</v>
       </c>
@@ -2363,8 +2362,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="104" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="104" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>0</v>
       </c>
@@ -2372,7 +2371,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="105" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="8" t="s">
         <v>1</v>
       </c>
@@ -2380,7 +2379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="8" t="s">
         <v>2</v>
       </c>
@@ -2388,7 +2387,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A107" s="8" t="s">
         <v>3</v>
       </c>
@@ -2396,7 +2395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A108" s="8" t="s">
         <v>5</v>
       </c>
@@ -2404,7 +2403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A109" s="8" t="s">
         <v>7</v>
       </c>
@@ -2412,7 +2411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A110" s="8" t="s">
         <v>9</v>
       </c>
@@ -2420,7 +2419,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8" t="s">
         <v>37</v>
       </c>
@@ -2428,12 +2427,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8" t="s">
         <v>11</v>
       </c>
@@ -2462,7 +2461,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
         <v>85</v>
       </c>
@@ -2485,7 +2484,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="s">
         <v>90</v>
       </c>
@@ -2508,7 +2507,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="s">
         <v>19</v>
       </c>
@@ -2528,7 +2527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="s">
         <v>24</v>
       </c>
@@ -2548,7 +2547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="s">
         <v>40</v>
       </c>
@@ -2571,7 +2570,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8" t="s">
         <v>27</v>
       </c>
@@ -2594,8 +2593,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="120" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="121" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="121" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>0</v>
       </c>
@@ -2603,7 +2602,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8" t="s">
         <v>1</v>
       </c>
@@ -2611,7 +2610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A123" s="8" t="s">
         <v>2</v>
       </c>
@@ -2619,7 +2618,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="124" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8" t="s">
         <v>3</v>
       </c>
@@ -2627,7 +2626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8" t="s">
         <v>5</v>
       </c>
@@ -2635,7 +2634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A126" s="8" t="s">
         <v>7</v>
       </c>
@@ -2643,7 +2642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A127" s="8" t="s">
         <v>9</v>
       </c>
@@ -2651,7 +2650,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A128" s="8" t="s">
         <v>37</v>
       </c>
@@ -2659,12 +2658,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="129" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A130" s="8" t="s">
         <v>11</v>
       </c>
@@ -2693,7 +2692,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
         <v>82</v>
       </c>
@@ -2719,7 +2718,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A132" s="8" t="s">
         <v>90</v>
       </c>
@@ -2742,7 +2741,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="133" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A133" s="8" t="s">
         <v>19</v>
       </c>
@@ -2762,7 +2761,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="134" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A134" s="8" t="s">
         <v>24</v>
       </c>
@@ -2782,7 +2781,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A135" s="8" t="s">
         <v>40</v>
       </c>
@@ -2805,7 +2804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="136" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8" t="s">
         <v>27</v>
       </c>
@@ -2828,8 +2827,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="137" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="138" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="138" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>0</v>
       </c>
@@ -2837,7 +2836,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A139" s="8" t="s">
         <v>1</v>
       </c>
@@ -2845,7 +2844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A140" s="8" t="s">
         <v>2</v>
       </c>
@@ -2853,7 +2852,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A141" s="8" t="s">
         <v>3</v>
       </c>
@@ -2861,7 +2860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A142" s="8" t="s">
         <v>5</v>
       </c>
@@ -2869,7 +2868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A143" s="8" t="s">
         <v>7</v>
       </c>
@@ -2877,7 +2876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="8" t="s">
         <v>9</v>
       </c>
@@ -2885,7 +2884,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="145" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A145" s="8" t="s">
         <v>37</v>
       </c>
@@ -2893,12 +2892,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A147" s="8" t="s">
         <v>11</v>
       </c>
@@ -2927,7 +2926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A148" s="8" t="s">
         <v>86</v>
       </c>
@@ -2953,7 +2952,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A149" s="8" t="s">
         <v>90</v>
       </c>
@@ -2976,7 +2975,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A150" s="8" t="s">
         <v>19</v>
       </c>
@@ -2996,7 +2995,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="151" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A151" s="8" t="s">
         <v>24</v>
       </c>
@@ -3016,7 +3015,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A152" s="8" t="s">
         <v>40</v>
       </c>
@@ -3039,7 +3038,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="153" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A153" s="8" t="s">
         <v>27</v>
       </c>
@@ -3062,10 +3061,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B154" s="9"/>
     </row>
-    <row r="155" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>0</v>
       </c>
@@ -3073,7 +3072,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A156" s="8" t="s">
         <v>1</v>
       </c>
@@ -3081,7 +3080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A157" s="8" t="s">
         <v>2</v>
       </c>
@@ -3089,7 +3088,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="158" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A158" s="8" t="s">
         <v>3</v>
       </c>
@@ -3097,7 +3096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A159" s="8" t="s">
         <v>5</v>
       </c>
@@ -3105,7 +3104,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A160" s="8" t="s">
         <v>7</v>
       </c>
@@ -3113,7 +3112,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A161" s="8" t="s">
         <v>9</v>
       </c>
@@ -3121,7 +3120,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A162" s="8" t="s">
         <v>37</v>
       </c>
@@ -3129,12 +3128,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="163" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A164" s="8" t="s">
         <v>11</v>
       </c>
@@ -3163,7 +3162,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A165" s="8" t="s">
         <v>83</v>
       </c>
@@ -3189,7 +3188,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A166" s="8" t="s">
         <v>90</v>
       </c>
@@ -3212,7 +3211,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="167" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A167" s="8" t="s">
         <v>19</v>
       </c>
@@ -3232,7 +3231,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="168" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A168" s="8" t="s">
         <v>24</v>
       </c>
@@ -3252,7 +3251,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A169" s="8" t="s">
         <v>40</v>
       </c>
@@ -3275,7 +3274,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A170" s="8" t="s">
         <v>27</v>
       </c>
@@ -3298,8 +3297,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="172" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="172" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
         <v>0</v>
       </c>
@@ -3307,7 +3306,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="8" t="s">
         <v>1</v>
       </c>
@@ -3315,7 +3314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="8" t="s">
         <v>2</v>
       </c>
@@ -3323,7 +3322,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="175" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="8" t="s">
         <v>3</v>
       </c>
@@ -3331,7 +3330,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="8" t="s">
         <v>5</v>
       </c>
@@ -3339,7 +3338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A177" s="8" t="s">
         <v>7</v>
       </c>
@@ -3347,7 +3346,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A178" s="8" t="s">
         <v>9</v>
       </c>
@@ -3355,7 +3354,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A179" s="8" t="s">
         <v>37</v>
       </c>
@@ -3363,12 +3362,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A181" s="8" t="s">
         <v>11</v>
       </c>
@@ -3397,7 +3396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A182" s="8" t="s">
         <v>87</v>
       </c>
@@ -3420,7 +3419,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A183" s="8" t="s">
         <v>90</v>
       </c>
@@ -3443,7 +3442,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="184" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A184" s="8" t="s">
         <v>19</v>
       </c>
@@ -3463,7 +3462,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A185" s="8" t="s">
         <v>24</v>
       </c>
@@ -3483,7 +3482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A186" s="8" t="s">
         <v>40</v>
       </c>
@@ -3506,7 +3505,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="187" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A187" s="8" t="s">
         <v>27</v>
       </c>
@@ -3529,8 +3528,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="188" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="189" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="189" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
         <v>0</v>
       </c>
@@ -3538,7 +3537,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="190" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A190" s="8" t="s">
         <v>1</v>
       </c>
@@ -3546,7 +3545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A191" s="8" t="s">
         <v>2</v>
       </c>
@@ -3554,7 +3553,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A192" s="8" t="s">
         <v>3</v>
       </c>
@@ -3562,7 +3561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="193" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A193" s="8" t="s">
         <v>5</v>
       </c>
@@ -3570,7 +3569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A194" s="8" t="s">
         <v>7</v>
       </c>
@@ -3578,7 +3577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A195" s="8" t="s">
         <v>9</v>
       </c>
@@ -3586,7 +3585,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="196" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A196" s="8" t="s">
         <v>37</v>
       </c>
@@ -3594,12 +3593,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="197" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A198" s="8" t="s">
         <v>11</v>
       </c>
@@ -3628,7 +3627,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A199" s="8" t="s">
         <v>84</v>
       </c>
@@ -3654,7 +3653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A200" s="8" t="s">
         <v>90</v>
       </c>
@@ -3677,7 +3676,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="201" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A201" s="8" t="s">
         <v>19</v>
       </c>
@@ -3697,7 +3696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="202" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A202" s="8" t="s">
         <v>24</v>
       </c>
@@ -3717,7 +3716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A203" s="8" t="s">
         <v>40</v>
       </c>
@@ -3740,7 +3739,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="204" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A204" s="8" t="s">
         <v>27</v>
       </c>
@@ -3763,8 +3762,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="205" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="206" spans="1:9" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="206" spans="1:9" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
         <v>0</v>
       </c>
@@ -3772,7 +3771,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="207" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A207" s="8" t="s">
         <v>1</v>
       </c>
@@ -3780,7 +3779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:9" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A208" s="8" t="s">
         <v>2</v>
       </c>
@@ -3788,7 +3787,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A209" s="8" t="s">
         <v>3</v>
       </c>
@@ -3796,7 +3795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A210" s="8" t="s">
         <v>5</v>
       </c>
@@ -3804,7 +3803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="211" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A211" s="8" t="s">
         <v>7</v>
       </c>
@@ -3812,7 +3811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A212" s="8" t="s">
         <v>9</v>
       </c>
@@ -3820,7 +3819,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="213" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A213" s="8" t="s">
         <v>37</v>
       </c>
@@ -3828,12 +3827,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="214" spans="1:7" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A215" s="8" t="s">
         <v>11</v>
       </c>
@@ -3856,7 +3855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="216" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A216" s="8" t="s">
         <v>89</v>
       </c>
@@ -3896,7 +3895,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="218" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A218" s="8" t="s">
         <v>27</v>
       </c>
@@ -3916,7 +3915,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="219" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A219" s="8" t="s">
         <v>24</v>
       </c>
@@ -3934,7 +3933,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="220" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A220" s="8" t="s">
         <v>90</v>
       </c>
@@ -3954,7 +3953,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="221" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A221" s="8" t="s">
         <v>31</v>
       </c>
@@ -3971,10 +3970,10 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B222" s="11"/>
     </row>
-    <row r="223" spans="1:7" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>0</v>
       </c>
@@ -3982,7 +3981,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="224" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A224" s="8" t="s">
         <v>1</v>
       </c>
@@ -3990,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A225" s="8" t="s">
         <v>2</v>
       </c>
@@ -3998,7 +3997,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="226" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A226" s="8" t="s">
         <v>3</v>
       </c>
@@ -4006,7 +4005,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A227" s="8" t="s">
         <v>5</v>
       </c>
@@ -4014,7 +4013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="228" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A228" s="8" t="s">
         <v>7</v>
       </c>
@@ -4022,7 +4021,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A229" s="8" t="s">
         <v>9</v>
       </c>
@@ -4030,12 +4029,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="230" spans="1:7" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A231" s="8" t="s">
         <v>11</v>
       </c>
@@ -4058,7 +4057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A232" s="8" t="s">
         <v>89</v>
       </c>
@@ -4098,7 +4097,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="234" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A234" s="8" t="s">
         <v>51</v>
       </c>
@@ -4118,7 +4117,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="235" spans="1:7" s="8" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A235" s="8" t="s">
         <v>95</v>
       </c>
@@ -4135,576 +4134,331 @@
         <v>22</v>
       </c>
     </row>
-    <row r="236" spans="1:7" s="8" customFormat="1" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" s="8" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A236" s="10"/>
       <c r="G236" s="10"/>
     </row>
-    <row r="237" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="1"/>
     </row>
-    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B243" s="3"/>
     </row>
-    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B244" s="3"/>
     </row>
-    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="246" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="B246" s="2"/>
     </row>
-    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="253" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
     </row>
-    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="256" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="4"/>
       <c r="G256" s="4"/>
     </row>
-    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B260" s="5"/>
     </row>
-    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B261" s="5"/>
     </row>
-    <row r="262" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="1"/>
       <c r="B262" s="2"/>
     </row>
-    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="269" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="1"/>
     </row>
-    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="272" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="4"/>
       <c r="G272" s="4"/>
     </row>
-    <row r="273" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="4"/>
       <c r="G273" s="4"/>
     </row>
-    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="276" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A276" s="1"/>
       <c r="B276" s="2"/>
     </row>
-    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="283" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="1"/>
     </row>
-    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B289" s="3"/>
     </row>
-    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B290" s="3"/>
     </row>
-    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="292" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A292" s="1"/>
       <c r="B292" s="2"/>
     </row>
-    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="299" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="1"/>
     </row>
-    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="302" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="4"/>
       <c r="G302" s="4"/>
     </row>
-    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B306" s="5"/>
     </row>
-    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B307" s="5"/>
     </row>
-    <row r="308" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="1"/>
       <c r="B308" s="2"/>
     </row>
-    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="315" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="1"/>
     </row>
-    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="318" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="4"/>
       <c r="G318" s="4"/>
     </row>
-    <row r="319" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="4"/>
       <c r="G319" s="4"/>
     </row>
-    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="321" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="322" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="1"/>
       <c r="B322" s="2"/>
     </row>
-    <row r="323" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="324" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="325" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="326" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="327" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="328" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="329" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A329" s="1"/>
     </row>
-    <row r="330" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="331" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="332" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="333" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="334" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="335" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B335" s="3"/>
     </row>
-    <row r="336" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B336" s="3"/>
     </row>
-    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="338" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A338" s="1"/>
       <c r="B338" s="2"/>
     </row>
-    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="345" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A345" s="1"/>
     </row>
-    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="348" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="4"/>
       <c r="G348" s="4"/>
     </row>
-    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B352" s="5"/>
     </row>
-    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B353" s="5"/>
     </row>
-    <row r="354" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" s="1"/>
       <c r="B354" s="2"/>
     </row>
-    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="361" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="1"/>
     </row>
-    <row r="362" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="363" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="364" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A364" s="4"/>
       <c r="G364" s="4"/>
     </row>
-    <row r="365" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="4"/>
       <c r="G365" s="4"/>
     </row>
-    <row r="366" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="367" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="368" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A368" s="1"/>
       <c r="B368" s="2"/>
     </row>
-    <row r="369" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="370" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="371" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="372" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="373" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="374" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="375" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="1"/>
     </row>
-    <row r="376" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="377" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="378" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="379" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="380" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="381" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B381" s="3"/>
     </row>
-    <row r="382" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B382" s="3"/>
     </row>
-    <row r="383" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="384" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="1"/>
       <c r="B384" s="2"/>
     </row>
-    <row r="385" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="386" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="387" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="388" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="389" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="390" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="391" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="1"/>
     </row>
-    <row r="392" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="393" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="394" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="4"/>
       <c r="G394" s="4"/>
     </row>
-    <row r="395" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="396" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="397" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="398" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B398" s="5"/>
     </row>
-    <row r="399" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B399" s="5"/>
     </row>
-    <row r="400" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" s="1"/>
       <c r="B400" s="2"/>
     </row>
-    <row r="401" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="402" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="403" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="404" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="405" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="406" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="407" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A407" s="1"/>
     </row>
-    <row r="408" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="409" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="410" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A410" s="4"/>
       <c r="G410" s="4"/>
     </row>
-    <row r="411" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A411" s="4"/>
       <c r="G411" s="4"/>
     </row>
-    <row r="412" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="413" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="414" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A414" s="1"/>
       <c r="B414" s="2"/>
     </row>
-    <row r="415" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="416" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="417" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="418" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="419" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="420" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="421" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A421" s="1"/>
     </row>
-    <row r="422" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="423" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="424" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="425" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="426" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="427" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B427" s="3"/>
     </row>
-    <row r="428" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B428" s="3"/>
     </row>
-    <row r="429" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="430" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A430" s="1"/>
       <c r="B430" s="2"/>
     </row>
-    <row r="431" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="432" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="433" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="434" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="435" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="436" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="437" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A437" s="1"/>
     </row>
-    <row r="438" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="439" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="440" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A440" s="4"/>
       <c r="G440" s="4"/>
     </row>
-    <row r="441" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="442" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="443" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="444" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B444" s="5"/>
     </row>
-    <row r="445" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="446" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A446" s="1"/>
       <c r="B446" s="2"/>
     </row>
-    <row r="447" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="448" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="449" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="450" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="451" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="452" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="453" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A453" s="1"/>
     </row>
-    <row r="454" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="455" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="456" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A456" s="4"/>
       <c r="G456" s="4"/>
     </row>
-    <row r="457" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A457" s="4"/>
       <c r="G457" s="4"/>
     </row>
-    <row r="458" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="459" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A459" s="1"/>
       <c r="B459" s="2"/>
     </row>
-    <row r="460" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="461" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="462" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="463" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="464" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="465" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="466" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A466" s="1"/>
     </row>
-    <row r="467" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="468" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="469" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="470" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="471" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="472" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B472" s="3"/>
     </row>
-    <row r="473" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B473" s="3"/>
     </row>
-    <row r="474" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="475" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A475" s="1"/>
       <c r="B475" s="2"/>
     </row>
-    <row r="476" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="477" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="478" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="479" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="480" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="481" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="482" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A482" s="1"/>
     </row>
-    <row r="483" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="484" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="485" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A485" s="4"/>
       <c r="G485" s="4"/>
     </row>
-    <row r="486" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="487" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="488" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="489" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B489" s="5"/>
     </row>
-    <row r="490" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B490" s="5"/>
     </row>
-    <row r="491" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A491" s="1"/>
       <c r="B491" s="2"/>
     </row>
-    <row r="492" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="493" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="494" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="495" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="496" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="497" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="498" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A498" s="1"/>
     </row>
-    <row r="499" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="500" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="501" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A501" s="4"/>
       <c r="G501" s="4"/>
     </row>
-    <row r="502" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A502" s="4"/>
       <c r="G502" s="4"/>
     </row>
-    <row r="503" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="504" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="505" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A505" s="1"/>
       <c r="B505" s="2"/>
     </row>
-    <row r="506" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="507" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="508" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="509" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="510" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="511" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="512" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A512" s="1"/>
     </row>
-    <row r="513" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="514" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="515" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="516" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="517" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="518" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B518" s="3"/>
     </row>
-    <row r="519" spans="1:2" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B519" s="3"/>
     </row>
-    <row r="520" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="521" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A521" s="1"/>
       <c r="B521" s="2"/>
     </row>
-    <row r="522" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="523" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="524" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="525" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="526" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="527" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="528" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A528" s="1"/>
     </row>
-    <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="531" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A531" s="4"/>
       <c r="G531" s="4"/>
     </row>
-    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="533" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="534" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="535" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B535" s="5"/>
     </row>
-    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="537" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A537" s="1"/>
       <c r="B537" s="2"/>
     </row>
-    <row r="538" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="539" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="540" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="541" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="542" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="544" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A544" s="1"/>
     </row>
-    <row r="545" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="546" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="547" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A547" s="4"/>
       <c r="G547" s="4"/>
     </row>
-    <row r="548" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A548" s="4"/>
       <c r="G548" s="4"/>
     </row>
-    <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="550" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A550" s="1"/>
       <c r="B550" s="2"/>
     </row>
-    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="553" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="555" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="556" spans="1:7" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A556" s="1"/>
     </row>
-    <row r="557" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="558" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="559" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="561" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A561" s="1"/>
       <c r="B561" s="2"/>
     </row>
-    <row r="562" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="563" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="564" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="565" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="566" spans="1:2" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="567" spans="1:2" ht="16" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A567" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K567" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="hydrogen production, gaseous, 30 bar, from hard coal gasification and reforming, at coal gasification plant"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K567" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
